--- a/spreadsheet/macrofree/redis_resiliency_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/redis_resiliency_checklist.ko.xlsx
@@ -1059,12 +1059,12 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>영역 이중화</t>
+          <t>운영 관리</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>가용 영역</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
@@ -1101,17 +1101,17 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>고집</t>
+          <t>운영 관리</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>데이터 지속성</t>
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>캐시 데이터는 메모리에 저장되기 때문에 드물고 계획되지 않은 여러 노드의 오류로 인해 모든 데이터가 삭제될 수 있습니다. 데이터가 완전히 손실되는 것을 방지하기 위해 Redis 지속성을 사용하면 메모리 내 데이터의 주기적인 스냅숏을 만들어 저장소 계정에 저장할 수 있습니다.</t>
+          <t>캐시 데이터는 메모리에 저장되기 때문에 드물게 계획되지 않은 여러 노드의 오류로 인해 모든 데이터가 삭제될 수 있습니다. 데이터가 완전히 손실되는 것을 방지하기 위해 Redis 지속성을 사용하면 메모리 내 데이터의 주기적인 스냅숏을 만들어 저장소 계정에 저장할 수 있습니다.</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1124,7 +1124,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-cache-for-redis/cache-how-to-premium-persistence?tabs=premium</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-cache-for-redis/cache-high-availability#persistence</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1143,12 +1143,12 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>고집</t>
+          <t>운영 관리</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>지역 중복 저장소</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
@@ -1166,7 +1166,7 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-cache-for-redis/cache-how-to-premium-persistence?tabs=premium</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-cache-for-redis/cache-high-availability#storage-account-for-persistence</t>
         </is>
       </c>
       <c r="I10" s="15" t="n"/>
@@ -1185,12 +1185,12 @@
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="21" t="inlineStr">
         <is>
+          <t>운영 관리</t>
+        </is>
+      </c>
+      <c r="B11" s="21" t="inlineStr">
+        <is>
           <t>지역에서 복제</t>
-        </is>
-      </c>
-      <c r="B11" s="21" t="inlineStr">
-        <is>
-          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C11" s="21" t="inlineStr">
@@ -5998,7 +5998,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>영역 이중화</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -6035,7 +6035,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>고집</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -6062,7 +6062,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>지역에서 복제</t>
+          <t>운영 관리</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -6082,6 +6082,11 @@
           <t>필요 없음</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>플랫폼 자동화</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>권장 사항은 이해되었지만 현재 요구 사항에 필요하지 않음</t>
@@ -6097,6 +6102,11 @@
       <c r="B6" s="10" t="inlineStr">
         <is>
           <t>해당 없음</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>안전</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">

--- a/spreadsheet/macrofree/redis_resiliency_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/redis_resiliency_checklist.ko.xlsx
@@ -1059,21 +1059,25 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>운영 관리</t>
+          <t>BC 및 DR</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>가용 영역</t>
+          <t>고가용성</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Azure Cache for Redis는 프리미엄 및 엔터프라이즈 계층에서 영역 중복 구성을 지원합니다. 영역 중복 캐시는 동일한 지역의 여러 Azure 가용성 영역에 노드를 배치할 수 있습니다. 데이터 센터 또는 AZ 중단을 단일 장애 지점으로 제거하고 캐시의 전반적인 가용성을 높입니다.</t>
+          <t>Azure Cache for Redis에 대한 영역 중복성을 사용하도록 설정합니다. Azure Cache for Redis는 프리미엄 및 엔터프라이즈 계층에서 영역 중복 구성을 지원합니다. 영역 중복 캐시는 동일한 지역의 여러 Azure 가용성 영역에 노드를 배치할 수 있습니다. 데이터 센터 또는 AZ 중단을 단일 장애 지점으로 제거하고 캐시의 전반적인 가용성을 높입니다.</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
-      <c r="E8" s="21" t="n"/>
+      <c r="E8" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -1101,21 +1105,25 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>운영 관리</t>
+          <t>BC 및 DR</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
         <is>
-          <t>데이터 지속성</t>
+          <t>고가용성</t>
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>캐시 데이터는 메모리에 저장되기 때문에 드물게 계획되지 않은 여러 노드의 오류로 인해 모든 데이터가 삭제될 수 있습니다. 데이터가 완전히 손실되는 것을 방지하기 위해 Redis 지속성을 사용하면 메모리 내 데이터의 주기적인 스냅숏을 만들어 저장소 계정에 저장할 수 있습니다.</t>
+          <t>Azure Cache for Redis 인스턴스에 대한 데이터 지속성을 구성합니다. 캐시 데이터는 메모리에 저장되기 때문에 드물게 계획되지 않은 여러 노드의 오류로 인해 모든 데이터가 삭제될 수 있습니다. 데이터가 완전히 손실되는 것을 방지하기 위해 Redis 지속성을 사용하면 메모리 내 데이터의 주기적인 스냅숏을 만들어 저장소 계정에 저장할 수 있습니다.</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
-      <c r="E9" s="21" t="n"/>
+      <c r="E9" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -1143,12 +1151,12 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>운영 관리</t>
+          <t>BC 및 DR</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>지역 중복 저장소</t>
+          <t>고가용성</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
@@ -1157,7 +1165,11 @@
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
-      <c r="E10" s="21" t="n"/>
+      <c r="E10" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -1185,21 +1197,25 @@
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="21" t="inlineStr">
         <is>
-          <t>운영 관리</t>
+          <t>BC 및 DR</t>
         </is>
       </c>
       <c r="B11" s="21" t="inlineStr">
         <is>
-          <t>지역에서 복제</t>
+          <t>고가용성</t>
         </is>
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>지역에서 복제는 일반적으로 두 개의 Azure 지역에 걸쳐 있는 둘 이상의 Azure Cache for Redis 인스턴스를 연결하는 메커니즘입니다. 지역에서 복제는 주로 지역 간 재해 복구를 위해 설계되었습니다. 두 개의 프리미엄 계층 캐시 인스턴스는 주 캐시에 대한 읽기 및 쓰기를 제공하는 방식으로 지역 복제를 통해 연결되며, 해당 데이터는 보조 캐시에 복제됩니다.</t>
+          <t>프리미엄 Azure Cache for Redis 인스턴스에 대한 수동 지역 복제를 구성합니다. 지역에서 복제는 일반적으로 두 개의 Azure 지역에 걸쳐 있는 둘 이상의 Azure Cache for Redis 인스턴스를 연결하는 메커니즘입니다. 지역에서 복제는 주로 지역 간 재해 복구를 위해 설계되었습니다. 두 개의 프리미엄 계층 캐시 인스턴스는 주 캐시에 대한 읽기 및 쓰기를 제공하는 방식으로 지역 복제를 통해 연결되며, 해당 데이터는 보조 캐시에 복제됩니다.</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
-      <c r="E11" s="21" t="n"/>
+      <c r="E11" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -5922,7 +5938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -6062,7 +6078,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>운영 관리</t>
+          <t>BC 및 DR</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -6084,7 +6100,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>플랫폼 자동화</t>
+          <t>거버넌스 및 보안</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -6106,7 +6122,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>비용 거버넌스</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -6117,6 +6133,20 @@
       <c r="K6" t="inlineStr">
         <is>
           <t>es</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>응용 프로그램 배포</t>
         </is>
       </c>
     </row>
